--- a/myCCB/Standards/countyLink.xlsx
+++ b/myCCB/Standards/countyLink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\Standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4E92AB-CC40-498A-AF60-E3DEBF401CB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8629658-39C6-4AEF-B552-8A7CF90FEDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="233">
   <si>
     <t>countyName</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>CCLHO</t>
+  </si>
+  <si>
+    <t>SOUTHERN CALIFORNIA (No LA)</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2682,7 @@
         <v>229</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>214</v>
@@ -3089,7 +3092,7 @@
         <v>230</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>221</v>
@@ -3253,7 +3256,7 @@
         <v>206</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>221</v>
@@ -3294,7 +3297,7 @@
         <v>207</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>221</v>
@@ -3335,7 +3338,7 @@
         <v>207</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>221</v>
@@ -3376,7 +3379,7 @@
         <v>230</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>221</v>

--- a/myCCB/Standards/countyLink.xlsx
+++ b/myCCB/Standards/countyLink.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myCCB\Standards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\Standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8629658-39C6-4AEF-B552-8A7CF90FEDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7629FAB-3EDE-4E02-BD92-9095C88181CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="HO codes" sheetId="2" r:id="rId2"/>
-    <sheet name="Links" sheetId="3" r:id="rId3"/>
+    <sheet name="Reasoning" sheetId="4" r:id="rId2"/>
+    <sheet name="HO codes" sheetId="2" r:id="rId3"/>
+    <sheet name="Links" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,8 +27,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={353AAE92-C213-45C0-8A2A-FCA34AA5ABBA}</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{353AAE92-C213-45C0-8A2A-FCA34AA5ABBA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    source: https://www.dhcs.ca.gov/services/Documents/MMCD-Cnty-Map.pdf
+Reply:
+    Note: Medi-Ca Managed Care Plans contracts are currently being renewed for 2023.  Many Regional Expansion Plans will be switching to County Organized Health System (COHS) Expansion plans (e.g. Parntership Health Plan); and several other plan changes to commence in 2023.  See https://www.dhcs.ca.gov/CalAIM/Documents/MCP-County-Enrollment-Table.pdf ; and https://www.dhcs.ca.gov/CalAIM/Pages/MCP-RFP.aspx for mor information</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={39FE0FD7-3108-4EF8-A512-FA9E122D88C4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{39FE0FD7-3108-4EF8-A512-FA9E122D88C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    source: https://www.dhcs.ca.gov/services/Documents/MMCD-Cnty-Map.pdf
+Reply:
+    Note: Medi-Ca Managed Care Plans contracts are currently being renewed for 2023.  Many Regional Expansion Plans will be switching to County Organized Health System (COHS) Expansion plans (e.g. Parntership Health Plan); and several other plan changes to commence in 2023.  See https://www.dhcs.ca.gov/CalAIM/Documents/MCP-County-Enrollment-Table.pdf ; and https://www.dhcs.ca.gov/CalAIM/Pages/MCP-RFP.aspx for mor information</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="254">
   <si>
     <t>countyName</t>
   </si>
@@ -726,6 +767,69 @@
   </si>
   <si>
     <t>SOUTHERN CALIFORNIA (No LA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COHS </t>
+  </si>
+  <si>
+    <t>TWO PLAN</t>
+  </si>
+  <si>
+    <t>COHS</t>
+  </si>
+  <si>
+    <t>COHS EXPANSION</t>
+  </si>
+  <si>
+    <t>REGIONAL EXPANSION</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>SAN BENITO</t>
+  </si>
+  <si>
+    <t>IMPERIAL</t>
+  </si>
+  <si>
+    <t>MEDI_CAL_MODEL</t>
+  </si>
+  <si>
+    <t>COUNTYAGG_CHIS</t>
+  </si>
+  <si>
+    <t>REGION_CHIS</t>
+  </si>
+  <si>
+    <t>Del Norte/Sis/Las/Tri/Mod/Plumas/Sierra</t>
+  </si>
+  <si>
+    <t>Tehama/Glenn/Colusa</t>
+  </si>
+  <si>
+    <t>Tu/Ca/Am/In/Ma/Mo/Alp</t>
+  </si>
+  <si>
+    <t>NORTHERN/SIERRA</t>
+  </si>
+  <si>
+    <t>OTHER SOUTHERN CALIFORNIA</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This aggregation relies on traditional region groupings but takes San Francisco out of the Bay Area due to high STD occurrence in the county.</t>
+  </si>
+  <si>
+    <t>RegionalPHOffices (pending)</t>
+  </si>
+  <si>
+    <t>This aggregation reflects a shift from CHIS's 2001 methodology where the population threshold was changed  from 100,000 to 60,000. There are 3 aggregated geographies, 2 of which were from the 2001 methodology, and their grouping is primarily based on vicinity to one another and the  population threshold.</t>
   </si>
 </sst>
 </file>
@@ -800,6 +904,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Henley, Sandy@CDPH" id="{E02318AE-7A9B-4DAE-80B0-745D80A7C3B0}" userId="S::Sandy.Henley@cdph.ca.gov::bd6ff48d-1abb-44e9-a6c9-49d4276f347a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,33 +1173,54 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N1" dT="2022-09-09T20:31:57.46" personId="{E02318AE-7A9B-4DAE-80B0-745D80A7C3B0}" id="{353AAE92-C213-45C0-8A2A-FCA34AA5ABBA}">
+    <text>source: https://www.dhcs.ca.gov/services/Documents/MMCD-Cnty-Map.pdf</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2022-09-09T20:50:33.97" personId="{E02318AE-7A9B-4DAE-80B0-745D80A7C3B0}" id="{A8019ECA-2DB8-4B4B-84AA-138551EB1695}" parentId="{353AAE92-C213-45C0-8A2A-FCA34AA5ABBA}">
+    <text>Note: Medi-Ca Managed Care Plans contracts are currently being renewed for 2023.  Many Regional Expansion Plans will be switching to County Organized Health System (COHS) Expansion plans (e.g. Parntership Health Plan); and several other plan changes to commence in 2023.  See https://www.dhcs.ca.gov/CalAIM/Documents/MCP-County-Enrollment-Table.pdf ; and https://www.dhcs.ca.gov/CalAIM/Pages/MCP-RFP.aspx for mor information</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A14" dT="2022-09-09T20:31:57.46" personId="{E02318AE-7A9B-4DAE-80B0-745D80A7C3B0}" id="{39FE0FD7-3108-4EF8-A512-FA9E122D88C4}">
+    <text>source: https://www.dhcs.ca.gov/services/Documents/MMCD-Cnty-Map.pdf</text>
+  </threadedComment>
+  <threadedComment ref="A14" dT="2022-09-09T20:50:33.97" personId="{E02318AE-7A9B-4DAE-80B0-745D80A7C3B0}" id="{E55E43EF-4813-415B-AF8D-7D41DEFCEBD1}" parentId="{39FE0FD7-3108-4EF8-A512-FA9E122D88C4}">
+    <text>Note: Medi-Ca Managed Care Plans contracts are currently being renewed for 2023.  Many Regional Expansion Plans will be switching to County Organized Health System (COHS) Expansion plans (e.g. Parntership Health Plan); and several other plan changes to commence in 2023.  See https://www.dhcs.ca.gov/CalAIM/Documents/MCP-County-Enrollment-Table.pdf ; and https://www.dhcs.ca.gov/CalAIM/Pages/MCP-RFP.aspx for mor information</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="32.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="24.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1260,20 @@
       <c r="M1" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1170,8 +1313,17 @@
       <c r="M2" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1211,8 +1363,17 @@
       <c r="M3" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1252,8 +1413,17 @@
       <c r="M4" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1293,8 +1463,17 @@
       <c r="M5" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1334,8 +1513,17 @@
       <c r="M6" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1375,8 +1563,17 @@
       <c r="M7" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1416,8 +1613,17 @@
       <c r="M8" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1457,8 +1663,17 @@
       <c r="M9" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1498,8 +1713,17 @@
       <c r="M10" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1539,8 +1763,17 @@
       <c r="M11" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1580,8 +1813,17 @@
       <c r="M12" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1621,8 +1863,17 @@
       <c r="M13" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1662,8 +1913,17 @@
       <c r="M14" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1703,8 +1963,17 @@
       <c r="M15" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1744,8 +2013,17 @@
       <c r="M16" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1785,8 +2063,17 @@
       <c r="M17" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1826,8 +2113,17 @@
       <c r="M18" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1867,8 +2163,17 @@
       <c r="M19" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1908,8 +2213,17 @@
       <c r="M20" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1949,8 +2263,17 @@
       <c r="M21" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1990,8 +2313,17 @@
       <c r="M22" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2031,8 +2363,17 @@
       <c r="M23" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -2072,8 +2413,17 @@
       <c r="M24" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2113,8 +2463,17 @@
       <c r="M25" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2154,8 +2513,17 @@
       <c r="M26" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2195,8 +2563,17 @@
       <c r="M27" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2236,8 +2613,17 @@
       <c r="M28" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2277,8 +2663,17 @@
       <c r="M29" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2318,8 +2713,17 @@
       <c r="M30" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -2359,8 +2763,17 @@
       <c r="M31" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -2400,8 +2813,17 @@
       <c r="M32" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -2441,8 +2863,17 @@
       <c r="M33" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2482,8 +2913,17 @@
       <c r="M34" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -2523,8 +2963,17 @@
       <c r="M35" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
@@ -2564,8 +3013,17 @@
       <c r="M36" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -2605,8 +3063,17 @@
       <c r="M37" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2646,8 +3113,17 @@
       <c r="M38" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -2687,8 +3163,17 @@
       <c r="M39" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -2728,8 +3213,17 @@
       <c r="M40" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -2769,8 +3263,17 @@
       <c r="M41" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -2810,8 +3313,17 @@
       <c r="M42" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
@@ -2851,8 +3363,17 @@
       <c r="M43" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -2892,8 +3413,17 @@
       <c r="M44" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2933,8 +3463,17 @@
       <c r="M45" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2974,8 +3513,17 @@
       <c r="M46" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -3015,8 +3563,17 @@
       <c r="M47" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -3056,8 +3613,17 @@
       <c r="M48" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -3097,8 +3663,17 @@
       <c r="M49" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -3138,8 +3713,17 @@
       <c r="M50" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -3179,8 +3763,17 @@
       <c r="M51" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -3220,8 +3813,17 @@
       <c r="M52" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -3261,8 +3863,17 @@
       <c r="M53" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
@@ -3302,8 +3913,17 @@
       <c r="M54" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -3343,8 +3963,17 @@
       <c r="M55" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -3384,8 +4013,17 @@
       <c r="M56" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -3425,8 +4063,17 @@
       <c r="M57" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>41</v>
       </c>
@@ -3466,8 +4113,17 @@
       <c r="M58" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -3506,6 +4162,15 @@
       </c>
       <c r="M59" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3514,10 +4179,119 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26574C8-1876-40BA-A95E-EACB17B2F3C3}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBB635A-80D5-4F38-A613-7F93D24D13AC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -3575,7 +4349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF25E6C5-052A-49B6-BA81-1A24110B607D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
